--- a/inst/extdata/Banet-Example/metadata/snorkel-index-metadata.xlsx
+++ b/inst/extdata/Banet-Example/metadata/snorkel-index-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erin Cain\Documents\Git\CVPIA_Salmonid_Habitat_Monitoring\data-raw\mandy-salmanid-habitat-monitoring\Snorkel Index Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erin Cain\Documents\Git\CVPIA\EMLaide\inst\extdata\Banet-Example\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED746933-7D7E-4511-AEA4-0CDF9CE95E63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B429E5A-618E-406F-A0FA-964F020138E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10080" yWindow="-16560" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10080" yWindow="-16560" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="191">
   <si>
     <t>first_name</t>
   </si>
@@ -239,9 +239,6 @@
     <t>Banet</t>
   </si>
   <si>
-    <t>abanet@csuchico edu</t>
-  </si>
-  <si>
     <t>creator</t>
   </si>
   <si>
@@ -272,12 +269,6 @@
     <t>Greathouse</t>
   </si>
   <si>
-    <t>sptussing@earthlink.net</t>
-  </si>
-  <si>
-    <t>rgreathouse@psmfc.org</t>
-  </si>
-  <si>
     <t>Tussing Ecological Services</t>
   </si>
   <si>
@@ -615,6 +606,9 @@
   </si>
   <si>
     <t>winter run counted</t>
+  </si>
+  <si>
+    <t>mail@mail.mail</t>
   </si>
 </sst>
 </file>
@@ -1193,12 +1187,12 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1216,7 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMH190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1285,30 +1279,30 @@
     </row>
     <row r="2" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="14"/>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M2" s="16">
         <v>42019</v>
@@ -1317,20 +1311,20 @@
     </row>
     <row r="3" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -1343,20 +1337,20 @@
     </row>
     <row r="4" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -1369,29 +1363,29 @@
     </row>
     <row r="5" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J5" s="14">
         <v>0.5</v>
@@ -1407,29 +1401,29 @@
     </row>
     <row r="6" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>116</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>119</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="13"/>
@@ -1443,20 +1437,20 @@
     </row>
     <row r="7" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -1469,59 +1463,59 @@
     </row>
     <row r="8" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="14"/>
       <c r="K8" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="13"/>
@@ -1535,20 +1529,20 @@
     </row>
     <row r="10" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -1561,29 +1555,29 @@
     </row>
     <row r="11" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="13"/>
@@ -1597,29 +1591,29 @@
     </row>
     <row r="12" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="13"/>
@@ -1633,29 +1627,29 @@
     </row>
     <row r="13" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="13"/>
@@ -1669,20 +1663,20 @@
     </row>
     <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -1695,20 +1689,20 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -1721,29 +1715,29 @@
     </row>
     <row r="16" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="13"/>
@@ -1757,29 +1751,29 @@
     </row>
     <row r="17" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="13"/>
@@ -1793,29 +1787,29 @@
     </row>
     <row r="18" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="13"/>
@@ -1829,29 +1823,29 @@
     </row>
     <row r="19" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="13"/>
@@ -1865,29 +1859,29 @@
     </row>
     <row r="20" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="13"/>
@@ -1901,29 +1895,29 @@
     </row>
     <row r="21" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="13"/>
@@ -1937,29 +1931,29 @@
     </row>
     <row r="22" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="13"/>
@@ -1973,20 +1967,20 @@
     </row>
     <row r="23" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -1999,29 +1993,29 @@
     </row>
     <row r="24" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J24" s="14"/>
       <c r="K24" s="13"/>
@@ -4750,10 +4744,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4761,10 +4755,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4772,10 +4766,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4783,10 +4777,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4794,10 +4788,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4805,120 +4799,120 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4931,8 +4925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4971,70 +4965,70 @@
         <v>66</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
       <c r="F2" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
       <c r="C3" s="11" t="s">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
         <v>74</v>
       </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>78</v>
+      <c r="C4" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
         <v>76</v>
       </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>79</v>
+      <c r="C5" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5045,11 +5039,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{A37CF2EA-0AA4-7A48-A3BB-03E5CF2F125C}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{D8E80961-D1A2-5244-B87D-840FC2B1161C}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{E9A54F23-8915-6B43-97BC-C66A57BFB9D2}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{2AC411AF-987A-B149-A8A4-5DE2C0DC111F}"/>
-    <hyperlink ref="F2" r:id="rId5" xr:uid="{B6FD44FE-5996-BC4C-BC30-CA815CE3CCC8}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{B6FD44FE-5996-BC4C-BC30-CA815CE3CCC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5080,10 +5070,10 @@
     </row>
     <row r="2" spans="1:2" ht="114.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5116,22 +5106,22 @@
     </row>
     <row r="2" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -5175,7 +5165,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5233,25 +5223,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
       <c r="D2" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5308,14 +5298,14 @@
     </row>
     <row r="2" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -5355,10 +5345,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5419,7 +5409,7 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1">
         <v>-122.448217</v>
